--- a/策划文档/测试_体验.xlsx
+++ b/策划文档/测试_体验.xlsx
@@ -15,15 +15,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>新手难度降低</t>
+  </si>
+  <si>
+    <t>神武攻击非武将时，也会给自身添加武魂</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,7 +52,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -53,7 +65,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -68,28 +117,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,23 +162,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,61 +171,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,13 +202,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,13 +334,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,13 +358,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,73 +370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,55 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,17 +405,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,26 +429,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +468,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -500,148 +498,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -652,7 +650,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,19 +1001,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="F2"/>
+  <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:6">
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F2" s="2"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/策划文档/测试_体验.xlsx
+++ b/策划文档/测试_体验.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="20928" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>新手难度降低</t>
-  </si>
-  <si>
-    <t>神武攻击非武将时，也会给自身添加武魂</t>
   </si>
 </sst>
 </file>
@@ -29,10 +26,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -50,7 +47,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -64,73 +128,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -139,16 +144,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,13 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -188,6 +178,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,19 +199,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,25 +283,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,133 +361,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,20 +393,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,17 +423,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,6 +481,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -501,145 +498,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,13 +998,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F5"/>
+  <dimension ref="B2:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -1017,11 +1014,6 @@
         <v>0</v>
       </c>
       <c r="F2" s="2"/>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/策划文档/测试_体验.xlsx
+++ b/策划文档/测试_体验.xlsx
@@ -16,9 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>新手难度降低</t>
+  </si>
+  <si>
+    <t>老巢血量降低</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>狼骑和狂士</t>
+  </si>
+  <si>
+    <t>狂士术士数值提升</t>
   </si>
 </sst>
 </file>
@@ -26,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -55,6 +67,67 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,84 +141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,22 +159,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -184,7 +189,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,13 +211,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,169 +379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,6 +402,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -404,21 +431,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,6 +453,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -456,17 +483,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,15 +502,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -498,10 +510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,133 +522,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,22 +1010,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F2"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="3:6">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
